--- a/Presentations/Cardinalities.xlsx
+++ b/Presentations/Cardinalities.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseguraf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\owl-project\attributes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="219">
   <si>
     <t>Entity affected</t>
   </si>
@@ -232,13 +232,489 @@
   </si>
   <si>
     <t>epo:DynamicPurchaseSystemTechnique - epo:hasParticipationEvaluationPeriod - epo:Period - Association Removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:EvaluationBoard - epo:hasEvaluationBoardType </t>
+  </si>
+  <si>
+    <t>epo:EvaluationBoard - epo:PercentageEvaluated epo:Quantity - Removed</t>
+  </si>
+  <si>
+    <t>epo:TenderEvaluation (class) - Removed</t>
+  </si>
+  <si>
+    <t>epo:Evaluator (class) - Removed</t>
+  </si>
+  <si>
+    <t>1..*</t>
+  </si>
+  <si>
+    <t>epo:EvaluationResult - Removed</t>
+  </si>
+  <si>
+    <t>epo:EvaluationSystem - Removed</t>
+  </si>
+  <si>
+    <t>epo:EvaluationTerm epo:AwardCriteriaEvaluationFormula epo:Text</t>
+  </si>
+  <si>
+    <t>epo:EvaluationTerm epo:OverallCostAwardCriteriaPonderation epo:Text</t>
+  </si>
+  <si>
+    <t>epo:EvaluationTerm po:OverallPriceAwardCriteriaPonderation epo:Text</t>
+  </si>
+  <si>
+    <t>epo:EvaluationTerm (Predicate to Lot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:ExclusionGround epo:PersonalSituationCondition </t>
+  </si>
+  <si>
+    <t>epo:EvaluationBoard - Note removed</t>
+  </si>
+  <si>
+    <t>epo:Lot - note removed</t>
+  </si>
+  <si>
+    <t>epo:Organisation - Removed from Diagram EvaluationResult</t>
+  </si>
+  <si>
+    <t>epo:EvaluationBoard epo:hasEvaluationMember epo:Agent (modification of predicate the one stated instead of isComposedOf)</t>
+  </si>
+  <si>
+    <t>epo:ExclusionGround epo:ExclusionGroundType - Removed and also the enumeration epo:exclusion-criterion</t>
+  </si>
+  <si>
+    <t>epo:FrameworkAgreementTerm - epo:FrameworkAgreementType</t>
+  </si>
+  <si>
+    <t>epo:FrameworkAgreementTerm - epo:BuyerCoverage</t>
+  </si>
+  <si>
+    <t>epo:FrameworkAgreementTerm - epo:DurationExtensionJustification</t>
+  </si>
+  <si>
+    <t>epo:FrameworkAgreementTerm - epo:MaximumNumberOfAwardedTenderers</t>
+  </si>
+  <si>
+    <t>epo:FinancialAccount (class) - Removed</t>
+  </si>
+  <si>
+    <t>epo:FinancialTenderDocument (class) - Removed</t>
+  </si>
+  <si>
+    <t>epo:FrameworkAgreementTechnique - codelist epo:framework-agreement - Removed</t>
+  </si>
+  <si>
+    <t>epo:Fund - epo:Name</t>
+  </si>
+  <si>
+    <t>epo:Fund - epo:URL</t>
+  </si>
+  <si>
+    <t>everis to check if 1 is converted in the UML to 1 language. Does 0-1 allow 1 value for each language?</t>
+  </si>
+  <si>
+    <t>epo:GreenProcurement -  epo:FulfillsRequirement</t>
+  </si>
+  <si>
+    <t>epo:InnovativeProcurement -  epo:FulfillsRequirement</t>
+  </si>
+  <si>
+    <t>epo:InvitationToTender (class) - Removed</t>
+  </si>
+  <si>
+    <t>epo:Item - epo:ID</t>
+  </si>
+  <si>
+    <t>epo:Item - epo:Name</t>
+  </si>
+  <si>
+    <t>epo:Item - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:Item - epo:CountryOfOrigine</t>
+  </si>
+  <si>
+    <t>epo:Fund - epo:ID</t>
+  </si>
+  <si>
+    <t>epo:RequestForParticipation  - Removed from Diagram</t>
+  </si>
+  <si>
+    <t>epo:LocationCoordinate - Latitud</t>
+  </si>
+  <si>
+    <t>epo:LocationCoordinate - Longitud</t>
+  </si>
+  <si>
+    <t>epo:LocationCoordinate - Altitud</t>
+  </si>
+  <si>
+    <t>epo:MultipleStageProcedureTerm - epo:MaximumNumberOfCandidates</t>
+  </si>
+  <si>
+    <t>epo:MultipleStageProcedureTerm - epo:SuccessiveReduction</t>
+  </si>
+  <si>
+    <t>epo:MultipleStageProcedureTerm - epo:MinimumNumberOfCandidates</t>
+  </si>
+  <si>
+    <t>epo:MultipleStageProcedureTerm - epo:EstimatedInvitationToTenderDate</t>
+  </si>
+  <si>
+    <t>epo:MultipleStageProcedureTerm - epo:NoNegotiationNecessary</t>
+  </si>
+  <si>
+    <t>epo:MultipleStageProcedureTerm - epo:EstimatedInvitationToExpressInterestDate</t>
+  </si>
+  <si>
+    <t>epo:MultipleStageProcedureTerm - epo:MaximumCandidates</t>
+  </si>
+  <si>
+    <t>epo:LotGroup - epo:ID</t>
+  </si>
+  <si>
+    <t>epo:LotGroup - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:LotGroup - epo:Title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">epo:FrameworkAgreementTerm - codelist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>epo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve">:framework-agreement changed to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>"at-voc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve"> / codelist attributes replaced by a note </t>
+    </r>
+  </si>
+  <si>
+    <t>epo:Notice - codelist epo:form-type changed to "at-voc" / codelist attributes replaced by a note</t>
+  </si>
+  <si>
+    <t>epo:Notice - (class) deleted "abstract"</t>
+  </si>
+  <si>
+    <t>epo:Notice - epo:PublicationDate</t>
+  </si>
+  <si>
+    <t>epo:Notice - epo:PreferredPublicationDate</t>
+  </si>
+  <si>
+    <t>epo:Notice - epo:FormType</t>
+  </si>
+  <si>
+    <t>epo:Notice - epo:NotificationContentType</t>
+  </si>
+  <si>
+    <t>epo:Notice - epo:DPSScope</t>
+  </si>
+  <si>
+    <t>epo:OpeningHoursSpecification (class) - Removed</t>
+  </si>
+  <si>
+    <t>epo:OpeningTerm  - epo:OpeningDateTime</t>
+  </si>
+  <si>
+    <t>epo:OpeningTerm  - epo:OpeningDescription</t>
+  </si>
+  <si>
+    <t>epo:OpeningTerm  - epo:OpeningURL</t>
+  </si>
+  <si>
+    <t>epo:OpeningTerm  - predicate hasOpeningPlace</t>
+  </si>
+  <si>
+    <t>epo:Organisation - done in the past</t>
+  </si>
+  <si>
+    <t>epo:OrganisationGroup - epo:EOGroupType</t>
+  </si>
+  <si>
+    <t>epo:OrganisationGroup  - predicate hasEOGroupType</t>
+  </si>
+  <si>
+    <t>epo:OrganisationGroup  - epo:EOGroupType changed to epo:GroupType</t>
+  </si>
+  <si>
+    <t>epo:OrganisationGroup  - code list in EOGroupType - Removed</t>
+  </si>
+  <si>
+    <t>epo:Period - epo:StartDate</t>
+  </si>
+  <si>
+    <t>epo:Period - epo:EndDate</t>
+  </si>
+  <si>
+    <t>epo:Period - epo:DurationMeasure</t>
+  </si>
+  <si>
+    <t>epo:Period - epo:StartTime</t>
+  </si>
+  <si>
+    <t>epo:Period - epo:EndTime</t>
+  </si>
+  <si>
+    <t>epo:Period - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:Person - epo:FamilyName</t>
+  </si>
+  <si>
+    <t>epo:Person - epo:FullName</t>
+  </si>
+  <si>
+    <t>epo:Person - epo:PatronimicName</t>
+  </si>
+  <si>
+    <t>epo:Person - epo:AlternativeName</t>
+  </si>
+  <si>
+    <t>epo:Person - epo:epo:BirthFamilyName</t>
+  </si>
+  <si>
+    <t>epo:Person - epo:DateOfBirth</t>
+  </si>
+  <si>
+    <t>epo:Person - epo:DateOfDeath</t>
+  </si>
+  <si>
+    <t>epo:Person - epo:Nationality</t>
+  </si>
+  <si>
+    <t>epo:Person - link to codelist at-country has 0 to *</t>
+  </si>
+  <si>
+    <t>Kept to 1 because needed in the eForm but for SHACLSHAPES for</t>
+  </si>
+  <si>
+    <t>epo:PlannedProcurementPart  - epo:Title</t>
+  </si>
+  <si>
+    <t>epo:PlannedProcurementPart  - epo:LegalBasis</t>
+  </si>
+  <si>
+    <t>epo:PlannedProcurementPart  - epo:ID</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:Accelerated</t>
+  </si>
+  <si>
+    <t>epo:ProcedureTerm - epo:AdditionalInformationDeadline</t>
+  </si>
+  <si>
+    <t>epo:ProcedureTerm -  epo:EstimatedTenderInvitationDate</t>
+  </si>
+  <si>
+    <t>epo:ProcedureTerm - epo:ReceiptExpressionsDeadline</t>
+  </si>
+  <si>
+    <t>epo:ProcedureTerm - epo:GroupLotEvaluationMethod</t>
+  </si>
+  <si>
+    <t>epo:ProcurementCriterion - epo:Name</t>
+  </si>
+  <si>
+    <t>epo:ProcurementCriterion - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:ProcurementCriterionProperty (class) - Removed</t>
+  </si>
+  <si>
+    <t>epo:Property (class) - Removed</t>
+  </si>
+  <si>
+    <t>epo:ProcurementCriterion - epo:ID (added)</t>
+  </si>
+  <si>
+    <t>epo:ProjectProcurement - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:ProjectProcurement - epo:ID</t>
+  </si>
+  <si>
+    <t>epo:ProjectProcurement - epo:Title</t>
+  </si>
+  <si>
+    <t>epo:ProcurementDocument -epo:FreeAccess</t>
+  </si>
+  <si>
+    <t>epo:PlannedProcurementPart  - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:PlannedProcurementPart  - epo:SMESuitable</t>
+  </si>
+  <si>
+    <t>all text put to 0..* to allow several languages and 0..1 when the info is not in the dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:PublicationProvision - epo:NonPublicatonJustificationDescription </t>
+  </si>
+  <si>
+    <t>epo:PublicationProvision - epo:AvailabilityDate</t>
+  </si>
+  <si>
+    <t>epo:PublicationProvision - epo:NonPublicationJustification</t>
+  </si>
+  <si>
+    <t>epo:PlannedProcurementPart  - epo:AdditionalInformation</t>
+  </si>
+  <si>
+    <t>epo:PlannedProcurementPart  - epo:LegalBasisID</t>
+  </si>
+  <si>
+    <t>epo:PublicationProvision - epo:AvailabilityTime  - Removed</t>
+  </si>
+  <si>
+    <t>epo:PriorInformationNotice - epo:po:EstimatedContractNoticePublicationDate</t>
+  </si>
+  <si>
+    <t>epo:QualificationSystem (class) -  Removed</t>
+  </si>
+  <si>
+    <t>epo:RegulatoryFrameworkInformation - epo:RegulatoryFrameworkInformationProvider</t>
+  </si>
+  <si>
+    <t>epo:RegulatoryFrameworkInformation - epo:RegulatoryFrameworkInformationProvider arrow from it to Agent:  isProvidedBy 1..* Agents</t>
+  </si>
+  <si>
+    <t>epo:ResourceElement - epo:ElementIRI</t>
+  </si>
+  <si>
+    <t>epo:ResourceElement - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:Prize - epo:PrizeValue</t>
+  </si>
+  <si>
+    <t>epo:Procedure -  epo:AcceleratedProcedureJustification</t>
+  </si>
+  <si>
+    <t>epo:Procedure -  epo:ChoiceJustification</t>
+  </si>
+  <si>
+    <t>epo:Procedure -  epo:MainFeature</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:ID</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:Title</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:LotMinimumSubmission</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:LotSubmissionLimit</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:MaximumNumberOfLotsToBeAwarded</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:CompetitionTermination</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:LegalBasisID</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:LegalBasis</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:LegalRegime</t>
+  </si>
+  <si>
+    <t>epo:Prize - epo: PrizeRank</t>
+  </si>
+  <si>
+    <t>epo:PublicOrganisation - no attributes</t>
+  </si>
+  <si>
+    <t>epo:PurchaseContract - no attributes</t>
+  </si>
+  <si>
+    <t>epo:Purpose - done already in the past</t>
+  </si>
+  <si>
+    <t>we keep it as it it but will need to be reviewed by the WG</t>
+  </si>
+  <si>
+    <t>epo:Reviewer - no attributes</t>
+  </si>
+  <si>
+    <t>epo:ReviewTerm - epo: epo:ReviewProcedure</t>
+  </si>
+  <si>
+    <t>epo:ReviewTerm - epo:ReviewDeadline</t>
+  </si>
+  <si>
+    <t>epo:ReviewTerm - epo:ReviewDeadlineInformation</t>
+  </si>
+  <si>
+    <t>epo:Role - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:SecurityClearanceTerm - epo:Deadline</t>
+  </si>
+  <si>
+    <t>epo:SecurityClearanceTerm - epo:Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:SecurityClearanceTerm - epo:SecurityClearanceAddress </t>
+  </si>
+  <si>
+    <t>epo:Role - epo:Title</t>
+  </si>
+  <si>
+    <t>epo:ProcedureTerm - epo:LotAwardLimit</t>
+  </si>
+  <si>
+    <t>To carry on here on Tuesday 23 February</t>
+  </si>
+  <si>
+    <t>epo:Person - epo:GivenName</t>
+  </si>
+  <si>
+    <t>epo:Person - epo:ID</t>
+  </si>
+  <si>
+    <t>epo:Procedure - epo:DesignContest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +801,34 @@
       <color rgb="FFFF0000"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +883,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -426,7 +934,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,6 +956,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="7"/>
@@ -745,19 +1313,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G63"/>
+  <dimension ref="B1:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="95.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15">
@@ -1753,6 +2322,2542 @@
       </c>
       <c r="F63" s="12">
         <v>44231</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="F64" s="8">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="8">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="20">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="8">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="8">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="8">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="8">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="8">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="8">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" s="21" customFormat="1">
+      <c r="B83" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="9">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" s="21" customFormat="1">
+      <c r="B84" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="26">
+        <v>1</v>
+      </c>
+      <c r="F84" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" s="21" customFormat="1">
+      <c r="B85" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" s="21" customFormat="1">
+      <c r="B86" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" s="21" customFormat="1">
+      <c r="B87" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" s="21" customFormat="1">
+      <c r="B88" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" s="21" customFormat="1">
+      <c r="B89" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="26">
+        <v>1</v>
+      </c>
+      <c r="F89" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" s="21" customFormat="1">
+      <c r="B90" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" s="21" customFormat="1" ht="42.75">
+      <c r="B91" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="24">
+        <v>44238</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="9">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="9">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" s="21" customFormat="1">
+      <c r="B96" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="15"/>
+      <c r="F96" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" s="21" customFormat="1">
+      <c r="B97" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" s="21" customFormat="1">
+      <c r="B98" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" s="21" customFormat="1">
+      <c r="B99" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" s="21" customFormat="1">
+      <c r="B100" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="15"/>
+      <c r="F100" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" s="21" customFormat="1">
+      <c r="B101" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="15"/>
+      <c r="F101" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" s="21" customFormat="1">
+      <c r="B102" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="15"/>
+      <c r="F113" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="28.5">
+      <c r="B114" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="26">
+        <v>1</v>
+      </c>
+      <c r="F114" s="24">
+        <v>44238</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="26"/>
+      <c r="F119" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="27"/>
+      <c r="F120" s="9">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" s="21" customFormat="1">
+      <c r="B121" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="23">
+        <v>1</v>
+      </c>
+      <c r="F121" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" s="21" customFormat="1">
+      <c r="B124" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" s="21" customFormat="1">
+      <c r="B127" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" s="21" customFormat="1">
+      <c r="B128" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="9">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" s="21" customFormat="1">
+      <c r="B129" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" s="7" customFormat="1">
+      <c r="B136" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="31">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="24">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" s="7" customFormat="1">
+      <c r="B145" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" s="7" customFormat="1">
+      <c r="B146" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" s="7" customFormat="1">
+      <c r="B147" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" s="7" customFormat="1">
+      <c r="B148" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" s="7" customFormat="1">
+      <c r="B149" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" s="7" customFormat="1">
+      <c r="B150" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" s="7" customFormat="1">
+      <c r="B151" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" s="7" customFormat="1">
+      <c r="B152" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" s="7" customFormat="1">
+      <c r="B153" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" s="7" customFormat="1">
+      <c r="B154" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" s="7" customFormat="1" ht="36.6" customHeight="1">
+      <c r="B155" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" s="7" customFormat="1" ht="36.6" customHeight="1">
+      <c r="B156" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="35">
+        <v>1</v>
+      </c>
+      <c r="F156" s="31">
+        <v>44243</v>
+      </c>
+      <c r="G156" s="40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" s="7" customFormat="1">
+      <c r="B157" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" s="7" customFormat="1">
+      <c r="B158" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" s="7" customFormat="1">
+      <c r="B159" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" s="7" customFormat="1">
+      <c r="B160" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" s="7" customFormat="1">
+      <c r="B161" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" s="7" customFormat="1">
+      <c r="B162" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" s="7" customFormat="1">
+      <c r="B163" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" s="7" customFormat="1">
+      <c r="B164" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" s="7" customFormat="1">
+      <c r="B165" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" s="7" customFormat="1">
+      <c r="B166" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" s="7" customFormat="1">
+      <c r="B167" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C167" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" s="7" customFormat="1">
+      <c r="B168" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" s="7" customFormat="1">
+      <c r="B169" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C169" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" s="7" customFormat="1">
+      <c r="B170" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C170" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="36">
+        <v>1</v>
+      </c>
+      <c r="F170" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" s="7" customFormat="1">
+      <c r="B171" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C171" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" s="7" customFormat="1">
+      <c r="B172" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" s="7" customFormat="1">
+      <c r="B173" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C173" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" s="7" customFormat="1">
+      <c r="B174" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C174" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" s="7" customFormat="1">
+      <c r="B175" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C175" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" s="7" customFormat="1">
+      <c r="B176" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" s="7" customFormat="1">
+      <c r="B177" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C177" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" s="7" customFormat="1">
+      <c r="B178" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C178" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" s="7" customFormat="1">
+      <c r="B179" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C179" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" s="7" customFormat="1">
+      <c r="B180" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" s="7" customFormat="1">
+      <c r="B181" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" s="7" customFormat="1">
+      <c r="B182" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C182" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" s="7" customFormat="1">
+      <c r="B183" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C183" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" s="7" customFormat="1">
+      <c r="B184" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C184" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" s="7" customFormat="1">
+      <c r="B185" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C185" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" s="7" customFormat="1">
+      <c r="B186" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C186" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" s="7" customFormat="1">
+      <c r="B187" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C187" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" s="7" customFormat="1">
+      <c r="B188" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C188" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="36">
+        <v>1</v>
+      </c>
+      <c r="F188" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" s="7" customFormat="1">
+      <c r="B189" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C189" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" s="29" customFormat="1">
+      <c r="B190" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C190" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" s="29" customFormat="1">
+      <c r="B191" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" s="29" customFormat="1">
+      <c r="B192" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="37">
+        <v>1</v>
+      </c>
+      <c r="F192" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" s="29" customFormat="1">
+      <c r="B193" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="37">
+        <v>1</v>
+      </c>
+      <c r="F193" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" s="29" customFormat="1">
+      <c r="B194" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C194" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" s="29" customFormat="1">
+      <c r="B195" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C195" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" s="7" customFormat="1">
+      <c r="B196" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" s="29" customFormat="1">
+      <c r="B197" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C197" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" s="29" customFormat="1">
+      <c r="B198" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" s="7" customFormat="1">
+      <c r="B199" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="29"/>
+      <c r="F199" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" s="7" customFormat="1">
+      <c r="B200" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="29"/>
+      <c r="F200" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" s="7" customFormat="1">
+      <c r="B201" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="29"/>
+      <c r="F201" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" s="7" customFormat="1">
+      <c r="B202" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C202" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="33"/>
+      <c r="F202" s="39">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" s="7" customFormat="1">
+      <c r="B203" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F203" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" s="7" customFormat="1">
+      <c r="B204" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="29"/>
+      <c r="F204" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" s="7" customFormat="1" ht="28.5">
+      <c r="B205" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="36">
+        <v>1</v>
+      </c>
+      <c r="F205" s="31">
+        <v>44243</v>
+      </c>
+      <c r="G205" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" s="7" customFormat="1">
+      <c r="B206" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C206" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" s="7" customFormat="1">
+      <c r="B207" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C207" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="37"/>
+      <c r="F207" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" s="7" customFormat="1">
+      <c r="B208" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C208" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" s="7" customFormat="1">
+      <c r="B209" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C209" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" s="7" customFormat="1">
+      <c r="B210" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C210" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" s="7" customFormat="1">
+      <c r="B211" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C211" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" s="7" customFormat="1">
+      <c r="B212" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" s="7" customFormat="1">
+      <c r="B213" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C213" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="31">
+        <v>44243</v>
+      </c>
+      <c r="G213" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" s="7" customFormat="1">
+      <c r="B214" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" s="31">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" s="7" customFormat="1">
+      <c r="B215" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C215" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" s="31">
+        <v>44243</v>
       </c>
     </row>
   </sheetData>

--- a/Presentations/Cardinalities.xlsx
+++ b/Presentations/Cardinalities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\owl-project\attributes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseguraf\Documents\GitHub\ePO\Presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="303">
   <si>
     <t>Entity affected</t>
   </si>
@@ -698,9 +698,6 @@
     <t>epo:ProcedureTerm - epo:LotAwardLimit</t>
   </si>
   <si>
-    <t>To carry on here on Tuesday 23 February</t>
-  </si>
-  <si>
     <t>epo:Person - epo:GivenName</t>
   </si>
   <si>
@@ -708,6 +705,281 @@
   </si>
   <si>
     <t>epo:Procedure - epo:DesignContest</t>
+  </si>
+  <si>
+    <t>epo:SecurityClearanceTerm - code list security-clearance-address - Removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:SocialProcurement - epo:FullfillsRequirement  epo-Code </t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:EEAReceivedTenderLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:ReceivedParticipationRequests</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:ReceivedReviewRequests</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:epo:ReceivedNONEEATenderLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:epo:ReceivedSMETenderLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:ReceivedMicroTenderLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:ReceivedSmallTenderLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:MediumTenderPerLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:ReceivedTenderLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:InadmissibleTenderLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:LowestReceivedTenderLotValues</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:HighestReceivedTenderLotValues</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:AbnormallyLowTenderLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:TotalVehicles</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:UnverifiedTenderLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:ElectronicTenderLots</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:ZeroEmissionVehicles</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:CleanVehicles</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:TotalValueSubcontract</t>
+  </si>
+  <si>
+    <t>epo:StatisticalInformation - epo:NumberOfTenderesInvited</t>
+  </si>
+  <si>
+    <t>epo:StrategicProcurement - epo:StrategicProcurementDescription</t>
+  </si>
+  <si>
+    <t>epo:StrategicProcurement - epo:StrategicProcurementType epo-Code - Removed</t>
+  </si>
+  <si>
+    <t>epo:Subcontract - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:Subcontract - epo:EstimatedShare</t>
+  </si>
+  <si>
+    <t>epo:Subcontractor - no attributes</t>
+  </si>
+  <si>
+    <t>epo:SubcontractTerm - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:SubcontractTerm - epo:MaximumShare</t>
+  </si>
+  <si>
+    <t>epo:SubcontractTerm - epo:MinimumShare</t>
+  </si>
+  <si>
+    <t>epo:SubcontractTerm - epo:SubcontractingInvolved</t>
+  </si>
+  <si>
+    <t>epo:SubcontractTerm - epo:MinimumShareSubjectMatter</t>
+  </si>
+  <si>
+    <t>epo:SubcontractTerm - epo:MinimumSubcontractorsProposedObligation</t>
+  </si>
+  <si>
+    <t>epo:SubcontractTerm - epo:SubcontractingObligation epo:Code</t>
+  </si>
+  <si>
+    <t>epo:SubcontractTerm - epo:SubcontractorsProposedAboveObligation</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:SubmissionDocumentType</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:ReceiptDeadline</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:GuaranteeRequired</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:GuaranteeDescription</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:MultipleTenderSubmissionAllowed 01</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:Language - Code</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:ESubmissionPermission - Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:SubmissionTerm - epo:NonElectronicSubmissionJustification </t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:NonElectronicSubmissionDescription</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:ECataloguePermission</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:LateSubmissionPermission - Code</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:TenderSubcontractingInformation</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:LateSubmissionInformationDescription</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:ESubmissioneSignature changed to AdvancedElectronicSignatureRequired</t>
+  </si>
+  <si>
+    <t>epo:SubmissionTerm - epo:OfficialLanguage - Removed</t>
+  </si>
+  <si>
+    <t>epo:System - epo:Description</t>
+  </si>
+  <si>
+    <t>epo:System - epo:Name</t>
+  </si>
+  <si>
+    <t>epo:TechnicalSpecification - epo:AccessibilityCriteria - changed to AccessibilityCriterion - Code</t>
+  </si>
+  <si>
+    <t>epo:TechnicalSpecification - epo:NonAccessibilityCriteriaJustification changed to NonAccessibilityCriterionJustification</t>
+  </si>
+  <si>
+    <t>epo:TechnicalTenderDocument - class - Removed</t>
+  </si>
+  <si>
+    <t>epo:TenderLot - epo:ID</t>
+  </si>
+  <si>
+    <t>epo:TenderLot - epo:Variant</t>
+  </si>
+  <si>
+    <t>epo:TenderLot - epo:Subcontracting - attribute and code list applicability - Removed</t>
+  </si>
+  <si>
+    <t>not needed because wrong</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">epo:TenderLotEvaluationRank -  epo:RankingFirstStage - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Removed "ordinal"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">epo:TenderLotEvaluationRank - epo:FinalRanking - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Removed "positiveinteger"</t>
+    </r>
+  </si>
+  <si>
+    <t>epoTender - epo:ID</t>
+  </si>
+  <si>
+    <t>epoTender - epo:ElectronicSubmission</t>
+  </si>
+  <si>
+    <t>epo:TenderDocument - no attributes - class - Removed</t>
+  </si>
+  <si>
+    <t>think about if we keep it or not - to retake here on Thursday 25 February</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:TenderLotEvaluationRank - epo:FinalRanking </t>
+  </si>
+  <si>
+    <t>epo:TenderLotEvaluationRank -  epo:RankingFirstStage</t>
+  </si>
+  <si>
+    <t>we keep it because it refers to the rank of the tender at the evaluation and not to the winner</t>
+  </si>
+  <si>
+    <t>epo:Winner - no attributes</t>
+  </si>
+  <si>
+    <t>epo:Value - already done in the past</t>
+  </si>
+  <si>
+    <t>epo:TenderLotEvaluationRank - add "isRankedBy"</t>
+  </si>
+  <si>
+    <t>epo:notice-corrigendum-justification replaced by at:-voc:change-corrig-justification - Code list</t>
+  </si>
+  <si>
+    <t>epo:procurement-regime-type - Code list - Removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added property 'epo:hasSubmissionTerm' fromTender to SubmissionTerm </t>
+  </si>
+  <si>
+    <t>see github 253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:SubmissionTerm replaced 'isxxxxOf" with "isAppliedBy" and in epo:Lot  "epo:applies" </t>
+  </si>
+  <si>
+    <t>epo:SubmissionForClarification - class created</t>
+  </si>
+  <si>
+    <t>epo:RequestForParticipation - class created</t>
+  </si>
+  <si>
+    <t>epo:ExpresionForInteres - class created</t>
+  </si>
+  <si>
+    <t>epoTenderDocument - linked to the 3 new classes above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:submission-document-type - Code list - Removed  </t>
+  </si>
+  <si>
+    <t>epo:unit-code - Code list - Removed</t>
+  </si>
+  <si>
+    <t>epo:eo-role-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retrieve the property from Tender to TenderDocument "epo:attaches" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">retrieve the property from TenderDocument to Tender "epo:isAttached In" </t>
   </si>
 </sst>
 </file>
@@ -828,7 +1100,7 @@
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,12 +1155,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -934,7 +1200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,7 +1255,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1014,6 +1279,12 @@
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1313,16 +1584,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G215"/>
+  <dimension ref="B1:G298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="110.25" customWidth="1"/>
+    <col min="2" max="2" width="112.875" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="6" width="10.625" customWidth="1"/>
@@ -3157,7 +3428,7 @@
       <c r="F114" s="24">
         <v>44238</v>
       </c>
-      <c r="G114" s="32" t="s">
+      <c r="G114" s="31" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3513,19 +3784,19 @@
       </c>
     </row>
     <row r="136" spans="2:6" s="7" customFormat="1">
-      <c r="B136" s="29" t="s">
+      <c r="B136" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C136" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136" s="34" t="s">
+      <c r="C136" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="31">
+      <c r="F136" s="30">
         <v>44238</v>
       </c>
     </row>
@@ -3666,617 +3937,617 @@
       </c>
     </row>
     <row r="145" spans="2:7" s="7" customFormat="1">
-      <c r="B145" s="29" t="s">
+      <c r="B145" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C145" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" s="34" t="s">
+      <c r="C145" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="31">
+      <c r="F145" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="146" spans="2:7" s="7" customFormat="1">
-      <c r="B146" s="29" t="s">
+      <c r="B146" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="34" t="s">
+      <c r="C146" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F146" s="31">
+      <c r="F146" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="147" spans="2:7" s="7" customFormat="1">
-      <c r="B147" s="29" t="s">
+      <c r="B147" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" s="7" customFormat="1">
+      <c r="B148" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" s="7" customFormat="1">
+      <c r="B149" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" s="7" customFormat="1">
+      <c r="B150" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" s="7" customFormat="1">
+      <c r="B151" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" s="7" customFormat="1">
+      <c r="B152" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" s="7" customFormat="1">
+      <c r="B153" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" s="7" customFormat="1">
+      <c r="B154" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C147" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" s="34" t="s">
+      <c r="C154" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" s="7" customFormat="1" ht="36.6" customHeight="1">
+      <c r="B155" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F147" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" s="7" customFormat="1">
-      <c r="B148" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C148" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E148" s="34" t="s">
+      <c r="F155" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" s="7" customFormat="1" ht="36.6" customHeight="1">
+      <c r="B156" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="34">
+        <v>1</v>
+      </c>
+      <c r="F156" s="30">
+        <v>44243</v>
+      </c>
+      <c r="G156" s="39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" s="7" customFormat="1">
+      <c r="B157" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F148" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" s="7" customFormat="1">
-      <c r="B149" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C149" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="34" t="s">
+      <c r="F157" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" s="7" customFormat="1">
+      <c r="B158" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F149" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" s="7" customFormat="1">
-      <c r="B150" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C150" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="34" t="s">
+      <c r="F158" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" s="7" customFormat="1">
+      <c r="B159" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F150" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" s="7" customFormat="1">
-      <c r="B151" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" s="7" customFormat="1">
-      <c r="B152" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C152" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" s="7" customFormat="1">
-      <c r="B153" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" s="34" t="s">
+      <c r="F159" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" s="7" customFormat="1">
+      <c r="B160" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" s="7" customFormat="1">
+      <c r="B161" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F153" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" s="7" customFormat="1">
-      <c r="B154" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C154" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" s="7" customFormat="1" ht="36.6" customHeight="1">
-      <c r="B155" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C155" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="34" t="s">
+      <c r="F161" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" s="7" customFormat="1">
+      <c r="B162" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F155" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" s="7" customFormat="1" ht="36.6" customHeight="1">
-      <c r="B156" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" s="35">
-        <v>1</v>
-      </c>
-      <c r="F156" s="31">
-        <v>44243</v>
-      </c>
-      <c r="G156" s="40" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" s="7" customFormat="1">
-      <c r="B157" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C157" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" s="7" customFormat="1">
-      <c r="B158" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C158" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" s="7" customFormat="1">
-      <c r="B159" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C159" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F159" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" s="7" customFormat="1">
-      <c r="B160" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C160" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" s="7" customFormat="1">
-      <c r="B161" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C161" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" s="7" customFormat="1">
-      <c r="B162" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C162" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="31">
+      <c r="F162" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="163" spans="2:6" s="7" customFormat="1">
-      <c r="B163" s="29" t="s">
+      <c r="B163" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C163" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" s="30" t="s">
+      <c r="C163" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F163" s="31">
+      <c r="F163" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="164" spans="2:6" s="7" customFormat="1">
-      <c r="B164" s="29" t="s">
+      <c r="B164" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C164" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" s="30" t="s">
+      <c r="C164" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F164" s="31">
+      <c r="F164" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="165" spans="2:6" s="7" customFormat="1">
-      <c r="B165" s="29" t="s">
+      <c r="B165" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C165" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" s="30" t="s">
+      <c r="C165" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F165" s="31">
+      <c r="F165" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="166" spans="2:6" s="7" customFormat="1">
-      <c r="B166" s="29" t="s">
+      <c r="B166" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C166" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" s="30" t="s">
+      <c r="C166" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F166" s="31">
+      <c r="F166" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="167" spans="2:6" s="7" customFormat="1">
-      <c r="B167" s="29" t="s">
+      <c r="B167" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C167" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D167" s="30" t="s">
+      <c r="C167" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F167" s="31">
+      <c r="F167" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="168" spans="2:6" s="7" customFormat="1">
-      <c r="B168" s="29" t="s">
+      <c r="B168" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C168" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D168" s="30" t="s">
+      <c r="C168" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F168" s="31">
+      <c r="F168" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="169" spans="2:6" s="7" customFormat="1">
-      <c r="B169" s="29" t="s">
+      <c r="B169" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C169" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" s="30" t="s">
+      <c r="C169" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F169" s="31">
+      <c r="F169" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="170" spans="2:6" s="7" customFormat="1">
-      <c r="B170" s="29" t="s">
+      <c r="B170" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C170" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D170" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="36">
+      <c r="C170" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="35">
         <v>1</v>
       </c>
-      <c r="F170" s="31">
+      <c r="F170" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="171" spans="2:6" s="7" customFormat="1">
-      <c r="B171" s="29" t="s">
+      <c r="B171" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C171" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" s="30" t="s">
+      <c r="C171" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F171" s="31">
+      <c r="F171" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="172" spans="2:6" s="7" customFormat="1">
-      <c r="B172" s="29" t="s">
+      <c r="B172" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="C172" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" s="30" t="s">
+      <c r="C172" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F172" s="31">
+      <c r="F172" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="173" spans="2:6" s="7" customFormat="1">
-      <c r="B173" s="29" t="s">
+      <c r="B173" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="C173" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D173" s="30" t="s">
+      <c r="C173" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F173" s="31">
+      <c r="F173" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="174" spans="2:6" s="7" customFormat="1">
-      <c r="B174" s="29" t="s">
+      <c r="B174" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C174" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D174" s="30" t="s">
+      <c r="C174" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F174" s="31">
+      <c r="F174" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="175" spans="2:6" s="7" customFormat="1">
-      <c r="B175" s="29" t="s">
+      <c r="B175" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="C175" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="30" t="s">
+      <c r="C175" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F175" s="31">
+      <c r="F175" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="176" spans="2:6" s="7" customFormat="1">
-      <c r="B176" s="29" t="s">
+      <c r="B176" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C176" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D176" s="30" t="s">
+      <c r="C176" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F176" s="31">
+      <c r="F176" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="177" spans="2:6" s="7" customFormat="1">
-      <c r="B177" s="29" t="s">
+      <c r="B177" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C177" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" s="30" t="s">
+      <c r="C177" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F177" s="31">
+      <c r="F177" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="178" spans="2:6" s="7" customFormat="1">
-      <c r="B178" s="29" t="s">
+      <c r="B178" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C178" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D178" s="30" t="s">
+      <c r="C178" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F178" s="31">
+      <c r="F178" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="179" spans="2:6" s="7" customFormat="1">
-      <c r="B179" s="29" t="s">
+      <c r="B179" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="C179" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D179" s="30" t="s">
+      <c r="C179" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F179" s="31">
+      <c r="F179" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="180" spans="2:6" s="7" customFormat="1">
-      <c r="B180" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C180" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" s="30" t="s">
+      <c r="B180" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C180" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F180" s="31">
+      <c r="F180" s="30">
         <v>44243</v>
       </c>
     </row>
@@ -4284,16 +4555,16 @@
       <c r="B181" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C181" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D181" s="30" t="s">
+      <c r="C181" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F181" s="31">
+      <c r="F181" s="30">
         <v>44243</v>
       </c>
     </row>
@@ -4301,16 +4572,16 @@
       <c r="B182" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C182" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" s="30" t="s">
+      <c r="C182" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F182" s="31">
+      <c r="F182" s="30">
         <v>44243</v>
       </c>
     </row>
@@ -4318,16 +4589,16 @@
       <c r="B183" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C183" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183" s="30" t="s">
+      <c r="C183" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F183" s="31">
+      <c r="F183" s="30">
         <v>44243</v>
       </c>
     </row>
@@ -4335,16 +4606,16 @@
       <c r="B184" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C184" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184" s="30" t="s">
+      <c r="C184" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E184" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F184" s="31">
+      <c r="F184" s="30">
         <v>44243</v>
       </c>
     </row>
@@ -4352,16 +4623,16 @@
       <c r="B185" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C185" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185" s="30" t="s">
+      <c r="C185" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F185" s="31">
+      <c r="F185" s="30">
         <v>44243</v>
       </c>
     </row>
@@ -4369,16 +4640,16 @@
       <c r="B186" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C186" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D186" s="30" t="s">
+      <c r="C186" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F186" s="31">
+      <c r="F186" s="30">
         <v>44243</v>
       </c>
     </row>
@@ -4386,16 +4657,16 @@
       <c r="B187" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C187" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D187" s="30" t="s">
+      <c r="C187" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E187" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F187" s="31">
+      <c r="F187" s="30">
         <v>44243</v>
       </c>
     </row>
@@ -4403,461 +4674,1858 @@
       <c r="B188" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C188" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D188" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E188" s="36">
+      <c r="C188" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="35">
         <v>1</v>
       </c>
-      <c r="F188" s="31">
+      <c r="F188" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="189" spans="2:6" s="7" customFormat="1">
-      <c r="B189" s="33" t="s">
+      <c r="B189" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C189" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D189" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F189" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="190" spans="2:6" s="29" customFormat="1">
-      <c r="B190" s="29" t="s">
+      <c r="C189" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" s="28" customFormat="1">
+      <c r="B190" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C190" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D190" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F190" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" s="29" customFormat="1">
-      <c r="B191" s="29" t="s">
+      <c r="C190" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" s="28" customFormat="1">
+      <c r="B191" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C191" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D191" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="29" t="s">
+      <c r="C191" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F191" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" s="29" customFormat="1">
-      <c r="B192" s="29" t="s">
+      <c r="F191" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" s="28" customFormat="1">
+      <c r="B192" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C192" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D192" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" s="37">
+      <c r="C192" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="36">
         <v>1</v>
       </c>
-      <c r="F192" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" s="29" customFormat="1">
-      <c r="B193" s="29" t="s">
+      <c r="F192" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" s="28" customFormat="1">
+      <c r="B193" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C193" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D193" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="37">
+      <c r="C193" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="36">
         <v>1</v>
       </c>
-      <c r="F193" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7" s="29" customFormat="1">
-      <c r="B194" s="29" t="s">
+      <c r="F193" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" s="28" customFormat="1">
+      <c r="B194" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C194" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D194" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" s="29" t="s">
+      <c r="C194" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F194" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7" s="29" customFormat="1">
-      <c r="B195" s="29" t="s">
+      <c r="F194" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" s="28" customFormat="1">
+      <c r="B195" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C195" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D195" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E195" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F195" s="31">
+      <c r="C195" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="196" spans="2:7" s="7" customFormat="1">
-      <c r="B196" s="33" t="s">
+      <c r="B196" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C196" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D196" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F196" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7" s="29" customFormat="1">
-      <c r="B197" s="33" t="s">
+      <c r="C196" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" s="28" customFormat="1">
+      <c r="B197" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C197" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D197" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F197" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7" s="29" customFormat="1">
-      <c r="B198" s="29" t="s">
+      <c r="C197" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" s="28" customFormat="1">
+      <c r="B198" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="C198" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D198" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F198" s="31">
+      <c r="C198" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="199" spans="2:7" s="7" customFormat="1">
-      <c r="B199" s="29" t="s">
+      <c r="B199" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D199" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" s="29"/>
-      <c r="F199" s="31">
+      <c r="C199" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="28"/>
+      <c r="F199" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="200" spans="2:7" s="7" customFormat="1">
-      <c r="B200" s="29" t="s">
+      <c r="B200" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D200" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="29"/>
-      <c r="F200" s="31">
+      <c r="C200" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="28"/>
+      <c r="F200" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="201" spans="2:7" s="7" customFormat="1">
-      <c r="B201" s="29" t="s">
+      <c r="B201" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C201" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D201" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" s="29"/>
-      <c r="F201" s="31">
+      <c r="C201" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="28"/>
+      <c r="F201" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="202" spans="2:7" s="7" customFormat="1">
-      <c r="B202" s="33" t="s">
+      <c r="B202" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C202" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D202" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="33"/>
-      <c r="F202" s="39">
+      <c r="C202" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="32"/>
+      <c r="F202" s="38">
         <v>44243</v>
       </c>
     </row>
     <row r="203" spans="2:7" s="7" customFormat="1">
-      <c r="B203" s="29" t="s">
+      <c r="B203" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C203" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D203" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203" s="29" t="s">
+      <c r="C203" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F203" s="31">
+      <c r="F203" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="204" spans="2:7" s="7" customFormat="1">
-      <c r="B204" s="29" t="s">
+      <c r="B204" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C204" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D204" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204" s="29"/>
-      <c r="F204" s="31">
+      <c r="C204" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="28"/>
+      <c r="F204" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="205" spans="2:7" s="7" customFormat="1" ht="28.5">
-      <c r="B205" s="29" t="s">
+      <c r="B205" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C205" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D205" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205" s="36">
+      <c r="C205" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="35">
         <v>1</v>
       </c>
-      <c r="F205" s="31">
-        <v>44243</v>
-      </c>
-      <c r="G205" s="40" t="s">
+      <c r="F205" s="30">
+        <v>44243</v>
+      </c>
+      <c r="G205" s="39" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="2:7" s="7" customFormat="1">
-      <c r="B206" s="29" t="s">
+      <c r="B206" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C206" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D206" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206" s="29" t="s">
+      <c r="C206" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F206" s="31">
+      <c r="F206" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="207" spans="2:7" s="7" customFormat="1">
-      <c r="B207" s="29" t="s">
+      <c r="B207" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C207" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D207" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207" s="37"/>
-      <c r="F207" s="31">
+      <c r="C207" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="36"/>
+      <c r="F207" s="30">
         <v>44243</v>
       </c>
     </row>
     <row r="208" spans="2:7" s="7" customFormat="1">
-      <c r="B208" s="29" t="s">
+      <c r="B208" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C208" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D208" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208" s="29" t="s">
+      <c r="C208" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F208" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7" s="7" customFormat="1">
-      <c r="B209" s="29" t="s">
+      <c r="F208" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" s="7" customFormat="1">
+      <c r="B209" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C209" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D209" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F209" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7" s="7" customFormat="1">
-      <c r="B210" s="29" t="s">
+      <c r="C209" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" s="7" customFormat="1">
+      <c r="B210" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C210" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D210" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E210" s="29" t="s">
+      <c r="C210" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F210" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7" s="7" customFormat="1">
-      <c r="B211" s="29" t="s">
+      <c r="F210" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" s="7" customFormat="1">
+      <c r="B211" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D211" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E211" s="29" t="s">
+      <c r="C211" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F211" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="212" spans="2:7" s="7" customFormat="1">
-      <c r="B212" s="29" t="s">
+      <c r="F211" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" s="7" customFormat="1">
+      <c r="B212" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="C212" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="29" t="s">
+      <c r="C212" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F212" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7" s="7" customFormat="1">
-      <c r="B213" s="29" t="s">
+      <c r="F212" s="30">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" s="7" customFormat="1">
+      <c r="B213" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C213" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="32"/>
+      <c r="F213" s="38">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" s="7" customFormat="1">
+      <c r="B214" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C213" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D213" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F213" s="31">
-        <v>44243</v>
-      </c>
-      <c r="G213" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="214" spans="2:7" s="7" customFormat="1">
-      <c r="B214" s="29" t="s">
+      <c r="C214" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F214" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" s="7" customFormat="1">
+      <c r="B215" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D214" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E214" s="29" t="s">
+      <c r="C215" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F214" s="31">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="215" spans="2:7" s="7" customFormat="1">
-      <c r="B215" s="29" t="s">
+      <c r="F215" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" s="7" customFormat="1">
+      <c r="B216" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C215" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D215" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E215" s="29" t="s">
+      <c r="C216" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F215" s="31">
-        <v>44243</v>
+      <c r="F216" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6">
+      <c r="B217" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F217" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="B218" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="B219" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F219" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C220" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="B221" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C221" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6">
+      <c r="B223" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="B224" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6">
+      <c r="B225" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6">
+      <c r="B226" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C227" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="B228" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C228" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6">
+      <c r="B229" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="B230" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C230" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C231" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="B232" t="s">
+        <v>234</v>
+      </c>
+      <c r="C232" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6">
+      <c r="B233" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6">
+      <c r="B234" t="s">
+        <v>236</v>
+      </c>
+      <c r="C234" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6">
+      <c r="B235" t="s">
+        <v>237</v>
+      </c>
+      <c r="C235" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6">
+      <c r="B236" t="s">
+        <v>238</v>
+      </c>
+      <c r="C236" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6">
+      <c r="B237" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6">
+      <c r="B238" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" s="38">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6">
+      <c r="B239" t="s">
+        <v>240</v>
+      </c>
+      <c r="C239" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6">
+      <c r="B240" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6">
+      <c r="B241" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6">
+      <c r="B242" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F242" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6">
+      <c r="B243" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C243" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6">
+      <c r="B244" t="s">
+        <v>246</v>
+      </c>
+      <c r="C244" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6">
+      <c r="B245" t="s">
+        <v>247</v>
+      </c>
+      <c r="C245" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" t="s">
+        <v>248</v>
+      </c>
+      <c r="C246" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" t="s">
+        <v>249</v>
+      </c>
+      <c r="C247" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6">
+      <c r="B248" t="s">
+        <v>250</v>
+      </c>
+      <c r="C248" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="B249" t="s">
+        <v>251</v>
+      </c>
+      <c r="C249" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" t="s">
+        <v>252</v>
+      </c>
+      <c r="C250" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
+      <c r="B251" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C251" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F251" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6">
+      <c r="B252" t="s">
+        <v>254</v>
+      </c>
+      <c r="C252" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="40">
+        <v>1</v>
+      </c>
+      <c r="F252" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6">
+      <c r="B253" t="s">
+        <v>258</v>
+      </c>
+      <c r="C253" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6">
+      <c r="B254" t="s">
+        <v>255</v>
+      </c>
+      <c r="C254" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6">
+      <c r="B255" t="s">
+        <v>256</v>
+      </c>
+      <c r="C255" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6">
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6">
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6">
+      <c r="B258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6">
+      <c r="B259" t="s">
+        <v>262</v>
+      </c>
+      <c r="C259" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6">
+      <c r="B260" t="s">
+        <v>266</v>
+      </c>
+      <c r="C260" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6">
+      <c r="B261" t="s">
+        <v>257</v>
+      </c>
+      <c r="C261" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6">
+      <c r="B262" t="s">
+        <v>264</v>
+      </c>
+      <c r="C262" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6">
+      <c r="B263" t="s">
+        <v>263</v>
+      </c>
+      <c r="C263" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6">
+      <c r="B264" t="s">
+        <v>265</v>
+      </c>
+      <c r="C264" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6">
+      <c r="B265" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C265" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="5"/>
+      <c r="F265" s="38">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6">
+      <c r="B266" t="s">
+        <v>268</v>
+      </c>
+      <c r="C266" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6">
+      <c r="B267" t="s">
+        <v>269</v>
+      </c>
+      <c r="C267" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6">
+      <c r="B268" t="s">
+        <v>270</v>
+      </c>
+      <c r="C268" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6">
+      <c r="B269" t="s">
+        <v>271</v>
+      </c>
+      <c r="C269" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" t="s">
+        <v>14</v>
+      </c>
+      <c r="F269" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6">
+      <c r="B270" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C270" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="5"/>
+      <c r="F270" s="38">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6">
+      <c r="B271" t="s">
+        <v>51</v>
+      </c>
+      <c r="C271" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" t="s">
+        <v>14</v>
+      </c>
+      <c r="F271" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6">
+      <c r="B272" t="s">
+        <v>52</v>
+      </c>
+      <c r="C272" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7">
+      <c r="B273" t="s">
+        <v>280</v>
+      </c>
+      <c r="C273" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7">
+      <c r="B274" t="s">
+        <v>279</v>
+      </c>
+      <c r="C274" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" s="40">
+        <v>1</v>
+      </c>
+      <c r="F274" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7">
+      <c r="B275" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C275" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="5"/>
+      <c r="F275" s="38">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7">
+      <c r="B276" t="s">
+        <v>274</v>
+      </c>
+      <c r="C276" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="B277" t="s">
+        <v>273</v>
+      </c>
+      <c r="C277" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="40">
+        <v>1</v>
+      </c>
+      <c r="F277" s="30">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7">
+      <c r="B278" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C278" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="5"/>
+      <c r="F278" s="38">
+        <v>44250</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" ht="42.75">
+      <c r="B279" t="s">
+        <v>277</v>
+      </c>
+      <c r="C279" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="40">
+        <v>1</v>
+      </c>
+      <c r="F279" s="30">
+        <v>44250</v>
+      </c>
+      <c r="G279" s="41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" ht="42.75">
+      <c r="B280" t="s">
+        <v>278</v>
+      </c>
+      <c r="C280" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="40">
+        <v>1</v>
+      </c>
+      <c r="F280" s="30">
+        <v>44250</v>
+      </c>
+      <c r="G280" s="41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7">
+      <c r="B281" t="s">
+        <v>288</v>
+      </c>
+      <c r="C281" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281" s="30">
+        <v>44252</v>
+      </c>
+      <c r="G281" s="41"/>
+    </row>
+    <row r="282" spans="2:7" ht="42.75">
+      <c r="B282" t="s">
+        <v>284</v>
+      </c>
+      <c r="C282" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282" s="30">
+        <v>44252</v>
+      </c>
+      <c r="G282" s="31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" ht="42.75">
+      <c r="B283" t="s">
+        <v>283</v>
+      </c>
+      <c r="C283" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283" s="30">
+        <v>44252</v>
+      </c>
+      <c r="G283" s="31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7">
+      <c r="B284" t="s">
+        <v>287</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="40"/>
+      <c r="F284" s="30">
+        <v>44252</v>
+      </c>
+      <c r="G284" s="31"/>
+    </row>
+    <row r="285" spans="2:7">
+      <c r="B285" t="s">
+        <v>286</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="40"/>
+      <c r="F285" s="30">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7">
+      <c r="B286" t="s">
+        <v>289</v>
+      </c>
+      <c r="C286" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="40">
+        <v>1</v>
+      </c>
+      <c r="F286" s="30">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7">
+      <c r="B287" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C287" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" s="27"/>
+      <c r="F287" s="38">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7">
+      <c r="B288" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C288" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="27"/>
+      <c r="F288" s="38">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7">
+      <c r="B289" t="s">
+        <v>291</v>
+      </c>
+      <c r="C289" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="40">
+        <v>1</v>
+      </c>
+      <c r="F289" s="30">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7">
+      <c r="B290" t="s">
+        <v>293</v>
+      </c>
+      <c r="C290" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="40">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>44252</v>
+      </c>
+      <c r="G290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7">
+      <c r="B291" t="s">
+        <v>294</v>
+      </c>
+      <c r="C291" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="40"/>
+      <c r="F291" s="30">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7">
+      <c r="B292" t="s">
+        <v>296</v>
+      </c>
+      <c r="C292" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="40"/>
+      <c r="F292" s="30">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7">
+      <c r="B293" t="s">
+        <v>295</v>
+      </c>
+      <c r="C293" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="40"/>
+      <c r="F293" s="30">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7">
+      <c r="B294" t="s">
+        <v>297</v>
+      </c>
+      <c r="C294" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="40"/>
+      <c r="F294" s="30">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7">
+      <c r="B295" t="s">
+        <v>301</v>
+      </c>
+      <c r="C295" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" t="s">
+        <v>75</v>
+      </c>
+      <c r="F295" s="30">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7">
+      <c r="B296" t="s">
+        <v>302</v>
+      </c>
+      <c r="C296" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>75</v>
+      </c>
+      <c r="F296" s="30">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7">
+      <c r="B297" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C297" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="5"/>
+      <c r="F297" s="38">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7">
+      <c r="B298" t="s">
+        <v>300</v>
+      </c>
+      <c r="C298" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="40">
+        <v>1</v>
+      </c>
+      <c r="F298" s="30">
+        <v>44252</v>
       </c>
     </row>
   </sheetData>
